--- a/Dataset/Authors/TAC_ann.xlsx
+++ b/Dataset/Authors/TAC_ann.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Dropbox\ALEXANDER\STUDIA\2025_Database_composti\Auctores_DB\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3E5306-2BDC-4B97-9E11-5C7E9D00E1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A89D0A4-3B16-4F60-8155-8B35BDAF76F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>citharoedus</t>
   </si>
   <si>
-    <t>decemvir</t>
-  </si>
-  <si>
     <t>decemviralis</t>
   </si>
   <si>
@@ -268,9 +265,6 @@
     <t>quindecim</t>
   </si>
   <si>
-    <t>quindecimvir</t>
-  </si>
-  <si>
     <t>quindecimviralis</t>
   </si>
   <si>
@@ -331,9 +325,6 @@
     <t>semustus</t>
   </si>
   <si>
-    <t>septemvir</t>
-  </si>
-  <si>
     <t>septemtrio</t>
   </si>
   <si>
@@ -403,9 +394,6 @@
     <t>triremis</t>
   </si>
   <si>
-    <t>triumvir</t>
-  </si>
-  <si>
     <t>triumviralis</t>
   </si>
   <si>
@@ -437,6 +425,18 @@
   </si>
   <si>
     <t>malefactus</t>
+  </si>
+  <si>
+    <t>decemviri</t>
+  </si>
+  <si>
+    <t>quindecimviri</t>
+  </si>
+  <si>
+    <t>septemviri</t>
+  </si>
+  <si>
+    <t>triumviri</t>
   </si>
 </sst>
 </file>
@@ -980,10 +980,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8">
         <v>6</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8">
         <v>1</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8">
         <v>4</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8">
         <v>3</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8">
         <v>15</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8">
         <v>33</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8">
         <v>2</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8">
         <v>4</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8">
         <v>6</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8">
         <v>3</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8">
         <v>9</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8">
         <v>13</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B46" s="8">
         <v>2</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="8">
         <v>4</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="8">
         <v>1</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="8">
         <v>6</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="8">
         <v>3</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="8">
         <v>4</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="8">
         <v>23</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="8">
         <v>1</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="8">
         <v>2</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="8">
         <v>15</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="8">
         <v>7</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="8">
         <v>3</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="8">
         <v>1</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="8">
         <v>1</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="8">
         <v>5</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="8">
         <v>1</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="8">
         <v>4</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="8">
         <v>3</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="8">
         <v>5</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="8">
         <v>1</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="8">
         <v>15</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="8">
         <v>2</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="8">
         <v>2</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="8">
         <v>3</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="8">
         <v>305</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="8">
         <v>7</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="8">
         <v>29</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="8">
         <v>1</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="8">
         <v>1</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="8">
         <v>2</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="8">
         <v>1</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="8">
         <v>1</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="8">
         <v>1</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="8">
         <v>1</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="8">
         <v>2</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="8">
         <v>5</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="8">
         <v>1</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="B85" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" s="8">
         <v>2</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B87" s="8">
         <v>8</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B88" s="8">
         <v>2</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B89" s="8">
         <v>4</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90" s="8">
         <v>7</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B91" s="8">
         <v>19</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B92" s="8">
         <v>7</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B93" s="8">
         <v>1</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B94" s="8">
         <v>4</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B95" s="8">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B96" s="8">
         <v>1</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B97" s="8">
         <v>1</v>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B98" s="8">
         <v>1</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B99" s="8">
         <v>3</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B100" s="8">
         <v>1</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B101" s="8">
         <v>2</v>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B102" s="8">
         <v>1</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B103" s="8">
         <v>1</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B104" s="8">
         <v>2</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B105" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="B106" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B107" s="8">
         <v>1</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B108" s="8">
         <v>24</v>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B109" s="8">
         <v>4</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B110" s="8">
         <v>3</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B111" s="8">
         <v>2</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B112" s="8">
         <v>13</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B113" s="8">
         <v>3</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B114" s="8">
         <v>3</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B115" s="8">
         <v>4</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B116" s="8">
         <v>2</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B117" s="8">
         <v>24</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B118" s="8">
         <v>1</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B119" s="8">
         <v>1</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B120" s="8">
         <v>1</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B121" s="8">
         <v>1</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B122" s="8">
         <v>1</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B123" s="8">
         <v>3</v>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B124" s="8">
         <v>7</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B125" s="8">
         <v>2</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B126" s="8">
         <v>1</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B127" s="8">
         <v>1</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B128" s="8">
         <v>9</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B129" s="8">
         <v>2</v>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B130" s="8">
         <v>1</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B131" s="8">
         <v>1</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B132" s="8">
         <v>2</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B133" s="8">
         <v>12</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B134" s="8">
         <v>1</v>
@@ -5270,7 +5270,7 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B135" s="8">
         <v>1</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B136" s="8">
         <v>1</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B137" s="8">
         <v>3</v>
@@ -5368,6 +5368,9 @@
       <c r="AA137" s="8"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B137">
+    <sortCondition ref="A107:A137"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dataset/Authors/TAC_ann.xlsx
+++ b/Dataset/Authors/TAC_ann.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A89D0A4-3B16-4F60-8155-8B35BDAF76F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9539838D-3FE0-4F57-A35F-7F2C4A114F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>P. Cornelius Tacitus</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>triumviri</t>
+  </si>
+  <si>
+    <t>accipiter</t>
   </si>
 </sst>
 </file>
@@ -852,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA137"/>
+  <dimension ref="A1:AA138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1012,11 +1015,11 @@
       <c r="AA5" s="6"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>5</v>
+      <c r="A6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1046,10 +1049,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1079,10 +1082,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1112,10 +1115,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1145,10 +1148,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1178,10 +1181,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1211,10 +1214,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1244,10 +1247,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1277,7 +1280,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8">
         <v>2</v>
@@ -1310,10 +1313,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1343,10 +1346,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1376,10 +1379,10 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1409,10 +1412,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1442,10 +1445,10 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1475,10 +1478,10 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1508,10 +1511,10 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1541,10 +1544,10 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1574,7 +1577,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -1607,7 +1610,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
@@ -1640,10 +1643,10 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1673,10 +1676,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1706,7 +1709,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>
@@ -1739,7 +1742,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
@@ -1772,7 +1775,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
@@ -1805,10 +1808,10 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1838,10 +1841,10 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1871,7 +1874,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
@@ -1904,7 +1907,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="8">
         <v>1</v>
@@ -1937,10 +1940,10 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1970,10 +1973,10 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2003,7 +2006,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
@@ -2036,10 +2039,10 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2069,10 +2072,10 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="8">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2102,10 +2105,10 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="8">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2135,10 +2138,10 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="8">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2168,10 +2171,10 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -2201,10 +2204,10 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -2234,10 +2237,10 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2267,10 +2270,10 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2300,10 +2303,10 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -2333,10 +2336,10 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="B46" s="8">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -2366,7 +2369,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
@@ -2399,10 +2402,10 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2432,10 +2435,10 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -2465,10 +2468,10 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2498,10 +2501,10 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2531,10 +2534,10 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -2564,10 +2567,10 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="8">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -2597,10 +2600,10 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2630,10 +2633,10 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="3"/>
@@ -2663,10 +2666,10 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="8">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -2696,10 +2699,10 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -2729,10 +2732,10 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -2762,10 +2765,10 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="8">
         <v>1</v>
@@ -2828,10 +2831,10 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -2861,10 +2864,10 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -2894,10 +2897,10 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -2927,10 +2930,10 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -2960,10 +2963,10 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2993,10 +2996,10 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -3026,10 +3029,10 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -3059,10 +3062,10 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="8">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -3092,7 +3095,7 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="8">
         <v>2</v>
@@ -3125,10 +3128,10 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -3158,10 +3161,10 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="8">
-        <v>305</v>
+        <v>3</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -3191,10 +3194,10 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="8">
-        <v>7</v>
+        <v>305</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -3224,10 +3227,10 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="8">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -3257,10 +3260,10 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -3290,7 +3293,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="8">
         <v>1</v>
@@ -3323,10 +3326,10 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -3356,10 +3359,10 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -3389,7 +3392,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="8">
         <v>1</v>
@@ -3422,7 +3425,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="8">
         <v>1</v>
@@ -3455,7 +3458,7 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="8">
         <v>1</v>
@@ -3488,10 +3491,10 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -3521,10 +3524,10 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -3554,10 +3557,10 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -3587,10 +3590,10 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -3620,10 +3623,10 @@
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="B85" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -3653,10 +3656,10 @@
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="B86" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -3686,10 +3689,10 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -3719,10 +3722,10 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -3752,10 +3755,10 @@
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B89" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -3785,10 +3788,10 @@
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -3818,10 +3821,10 @@
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91" s="8">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -3851,10 +3854,10 @@
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B92" s="8">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -3884,10 +3887,10 @@
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B93" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -3917,10 +3920,10 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B94" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -3950,10 +3953,10 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B95" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -3983,7 +3986,7 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B96" s="8">
         <v>1</v>
@@ -4016,7 +4019,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97" s="8">
         <v>1</v>
@@ -4049,7 +4052,7 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B98" s="8">
         <v>1</v>
@@ -4082,10 +4085,10 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B99" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -4115,10 +4118,10 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B100" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -4148,10 +4151,10 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B101" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -4181,10 +4184,10 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B102" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -4214,7 +4217,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" s="8">
         <v>1</v>
@@ -4247,10 +4250,10 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B104" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -4280,7 +4283,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B105" s="8">
         <v>2</v>
@@ -4313,10 +4316,10 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B106" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -4346,7 +4349,7 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="B107" s="8">
         <v>1</v>
@@ -4379,10 +4382,10 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B108" s="8">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -4412,10 +4415,10 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B109" s="8">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -4445,10 +4448,10 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B110" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -4478,10 +4481,10 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B111" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -4511,10 +4514,10 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B112" s="8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -4544,10 +4547,10 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B113" s="8">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -4577,7 +4580,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B114" s="8">
         <v>3</v>
@@ -4610,10 +4613,10 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B115" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -4643,10 +4646,10 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B116" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -4676,10 +4679,10 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B117" s="8">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -4709,10 +4712,10 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B118" s="8">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -4742,7 +4745,7 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B119" s="8">
         <v>1</v>
@@ -4775,7 +4778,7 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B120" s="8">
         <v>1</v>
@@ -4808,7 +4811,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B121" s="8">
         <v>1</v>
@@ -4841,7 +4844,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B122" s="8">
         <v>1</v>
@@ -4874,10 +4877,10 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B123" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -4907,10 +4910,10 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B124" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -4940,10 +4943,10 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B125" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -4973,10 +4976,10 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B126" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -5006,7 +5009,7 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B127" s="8">
         <v>1</v>
@@ -5039,10 +5042,10 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B128" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -5072,10 +5075,10 @@
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B129" s="8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -5171,7 +5174,7 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B132" s="8">
         <v>2</v>
@@ -5204,10 +5207,10 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B133" s="8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -5237,10 +5240,10 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B134" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -5270,7 +5273,7 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B135" s="8">
         <v>1</v>
@@ -5303,7 +5306,7 @@
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B136" s="8">
         <v>1</v>
@@ -5336,10 +5339,10 @@
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B137" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -5367,9 +5370,17 @@
       <c r="Z137" s="8"/>
       <c r="AA137" s="8"/>
     </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B138" s="8">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B137">
-    <sortCondition ref="A107:A137"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B138">
+    <sortCondition ref="A138"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
